--- a/500all/speech_level/speeches_CHRG-114hhrg99574.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99574.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security, Subcommittees on Transportation Security and Counterterrorism and Intelligence, will come to order.    The subcommittees are meeting today to hear testimony on our ability to safeguard our Nation's surface transportation systems against evolving terrorist threats. I now recognize myself for an opening statement.    I would like to welcome everyone to today's hearing. I am pleased to be joined by fellow New York delegation Members Chairman Peter King, Ranking Member Kathleen Rice, and Ranking Member Brian Higgins to talk about a topic that is so vital to the State of New York.    Protecting our Nation's surface transportation systems requires full cooperation and participation at the Federal, State, local, and individual levels. An attack on any of our surface transportation systems not only disrupts the local economy and infrastructure, but would have a ripple effect to cities across our Nation. For example, in my own district in Syracuse, New York, we have a freight line that runs through our downtown area and provides critical economic benefit to the region.    The purpose of today's hearing is to assess our ability and readiness to detect and disrupt threats to our Nation's critical surface transportation systems.    Before we begin, I would like to express my pride and admiration for the four Americans that, through unrivaled acts of courage and bravery, were able to thwart a terrorist attack aboard a Paris-bound train on August 21, 2015. The heroic actions of these four men--Mark Moogalian, a teacher originally from Midlothian, Virginia; Anthony Sadler, a senior at Sacramento State University; Air Force Airman First Class Spencer Stone; and Oregon Army National Guard Specialist Alek Skarlatos--saved countless lives. They really represent the best of what America has to offer.    However, it is our responsibility to the American people to do all that we can to defend them against such heinous acts, and the American people should not be put in a position requiring them to defend their lives while riding a train, subway, or bus to vacation, commute to work, or simply to run an errand.    Since September 11, 2001, many people have come to think of a terrorist attack against the United States as one which is an elaborate scheme against a hardened target. Increasingly, however, the terrorists and their sympathizers are choosing soft targets. The Charlie Hebdo attack in Paris, the military recruiting centers attack in Chattanooga, and now the train attack in Paris are just a few of such examples.    I look forward to hearing from our witnesses today on their perspectives on the state of rail and mass transit security, to identify progress made since the terrorist attacks on September 11, and assess any remaining shortfalls and how to address them.    I ask unanimous consent to insert into the record a letter I sent to Administrator Neffenger from the Transportation Security Administration expressing my concern over the vulnerable state of security of our Nation's surface transportation systems. Without objection, it is so ordered.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400219</t>
   </si>
   <si>
-    <t>Peter T. King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I want to thank you for holding this joint hearing with the Counterterrorism and Intelligence Subcommittee today on terror threats to surface transportation.    If I may be allowed, I would like to acknowledge the fact that yesterday the House passed H.R. 720, which you sponsored, to require all airports and other surface transportation hubs to establish procedures responding to security threats such as active shooters. This was in response to the tragic murder of TSA screener Gerardo Hernandez, who was shot and killed back in November 2013 at LAX. It will now be sent to the President for signature. I want to take this opportunity to congratulate you on this passage of your first public law. It took me a lot longer to get there than it did you. So congratulations.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman, for holding this hearing to examine options for enhancing the safety and security across our surface transportation sectors.    The attacks of 9/11 focused and exploited the weaknesses inherent in our aviation security to perpetuate one of the worst attacks on United States soil. However, we must remember other modes of transportation have been and remain a top priority for terrorist groups world-wide and their affiliates. There have been devastating terrorist attacks against all modes of surface transportation across the globe, including train bombings in Belarus, India, Russia, Spain, and the United Kingdom, and most recently a shooting on a train traveling from Amsterdam to Paris.    While there was not been a successful transportation-related attack by al-Qaeda in the United States since 9/11, there have been a number of thwarted plots. My concern with this issue led me to introduce legislation in July entitled the Known Chemical, Biological, Radiological, and Nuclear Threats to Transportation Act.    The Department of Energy plans to begin transporting highly enriched uranium liquid from Canada to South Carolina next year. The Department of Energy proposes to transport this waste, which is far more radioactive than spent nuclear fuel, across the Northern Border at the Peace Bridge, crossing through several States and municipalities before reaching South Carolina. An attack on one of these trucks crossing the Peace Bridge could contaminate the Great Lakes--which contains 84 percent of North America's surface fresh water--with highly radioactive material.    Moreover, an attack on a truck moving through heavily populated areas throughout the United States would have obvious and devastating consequences.    Despite these risks, the Department of Energy is about to begin importing highly radioactive material, which has never before been shipped in this manner, using outdated, pre-9/11 information that does not reflect the threats we face today.    My bill, which was advanced through my Counterterrorism and Intelligence Subcommittee today unanimously, would direct the Department of Homeland Security's Office of Intelligence and Analysis to conduct an assessment of the risks associated with the transportation of chemical, biological, nuclear, and radiological materials. The bill also mandates that the Office of Intelligence and Analysis consult and share information with the heads of other Federal agencies, including the Transportation Security Administration, so that the assessment is informed by the most current information about homeland security threats.    As my bill continues to move through the House and the Senate, I hope to raise awareness of the security risks and protections needed within the surface transportation sector of our country.    Again, I thank Chairman King, Chairman Katko, and my fellow Ranking Member Rice for their leadership in focusing our oversight on this hearing. With that, I yield back.</t>
   </si>
   <si>
@@ -100,27 +91,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Mayenschein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mayenschein. Good afternoon, Chairman Katko, Ranking Member Rice, Chairman King, and Ranking Member Higgins, distinguished Members of the committee. I appreciate the opportunity to appear before you today to discuss the Transportation Security Administration's role in surface transportation security.    The surface transportation enterprise is massive. It is a huge challenge to secure surface transportation systems in a society where the free movement of people and commerce is not only expected, it is a valued way of life. Unlike the aviation realm where TSA conducts security operations, TSA's role in surface is focused primarily on oversight, cooperation, and regulation.    Since its inception, TSA has worked collaboratively with surface transportation operators, security partners, and the Federal interagency to ensure appropriate security posture. Our emphasis has been four-fold: Intelligence and information, sharing transportation security grants, training and exercises, and operational augmentation.    Since 2002, TSA has valued collaborative information sharing among interagency and industry partners. Intelligence and information-sharing efforts are conducted through entities such as the Transit Policing and Security Peer Advisory Group, or the PAG, consisting of chiefs of police and security directors from 27 entities, including the largest U.S. public transportation systems, also Canada and the United Kingdom. We also host forums such as the Annual Mass Transit and Passenger Rail Security Roundtable and monthly industry operator conference calls in all modes.    TSA advises FEMA for DHS surface transportation grants and develops risk-based funding priorities on security initiatives in surface transportation. Since 2006, $2.3 billion has been made available via the various security grant programs.    Through close work with our partners, we provide resources for security exercises and training. With Congress' help, TSA created the Intermodal Security Training and Exercise Program, or I-STEP, to assist surface entities testing and evaluating their security plans and their ability to respond to incidents. Most recently, an I-STEP exercise was conducted in Philadelphia to prepare for the papal visit.    As was the practice first initiated by DOT's Federal Transit Administration, TSA also works very closely with our stakeholders to update and disseminate recommended security guidelines, such as security action items for mass transit, highway and freight rail, motor coach security best practices, and pipeline security smart practice observations.    Lastly, each of the surface modes has developed or is developing handbooks, guides, and/or security DVDs, Web-based training addressing such subjects as sabotage, IED detection and response, and highlights the DHS-sponsored Run, Hide, Fight active-shooter training.    The TSA First Observer program trains highway professionals to observe, assess, and report potential security and terrorism incidents. Beginning in 2004, and also with Congressional support and authorization, TSA expanded the National Explosive Detection K-9 Program to include mass transit, passenger rail systems, and ferries. Currently, 139 transit maritime K-9 teams are deployed to high-risk systems.    In the aftermath of the terrorism incidents in London's transit system in 2005, TSA created the Visible Intermodal Prevention and Response, the VIPR team concept, to augment law enforcement and security personnel to enhance security in the Nation's transportation system. Currently, 31 VIPR teams are based in 20 high-risk locations throughout the Nation.    TSA appreciates the collaborative working relationship we have with our industry partners, including those from Amtrak and New York MTA, who are testifying on this panel today.    The recent incident in France is a reminder that we collectively must remain attentive to world-wide threats and incidents. Following that incident, transit and law enforcement agencies across the Nation participated in an Amtrak-sponsored operation known as RAILSAFE, which is conducted several times each year to deter terrorist activity through unpredictable security activities.    I thank the committee Members for their interest, and most importantly, their demonstrated support of these issues, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Mayenschein, for your testimony. We appreciate you being here today.    Our second witness is well-known to us, Ms. Jennifer Grover, who currently serves as the director for transportation security and Coast Guard issues on U.S. Government Accountability Office's Homeland Security and Justice Team.    Ms. Grover, I just want to note that you have provided great information for us in both a secure and a nonsecure setting in the past, and I look forward to hearing from it again today. I encourage you, as always, to be as frank and forthright as possible with issues so that we can best address them moving forward.    So what that, I recognize you to testify.</t>
   </si>
   <si>
-    <t>Grover</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Grover. Thank you. Good afternoon. I am pleased to be here today to discuss TSA's efforts to secure the U.S. surface transportation system.    As many of you have already noted, rail and transit systems, pipelines, and the Nation's highway transportation system are inherently vulnerable to attack and difficult to secure because they are open systems with multiple access points, where people and vehicles can generally move about freely. In this situation, good intelligence and robust communication about possible threats becomes critically important.    Compared to aviation, where TSA has a direct role in providing security, TSA's role in surface transportation security is indirect. For example, TSA contributes to surface transportation security by providing industry with recommended security standards and conducting voluntary security assessments.    TSA is also responsible for gathering information and sharing intelligence about potential threats. Specifically, TSA requires U.S. rail agencies to report all rail security incidents, with the intent of allowing TSA to analyze the data, identify new threats, and alert the rail industry and law enforcement.    For this to work, though, TSA has to receive consistent and accurate information on these rail incidents. They have to have a data management system in place to capture the information, to conduct appropriate analysis, and have effective data-sharing mechanisms. TSA has recently taken steps to improve in all of these areas.    In 2012, GAO found that TSA headquarters had not provided guidance to local TSA officials, called surface inspectors, about the types of rail security incidents that rail systems had to report, which led to inconsistent reporting. As a result, the number of incidents per million riders reported by 7 passenger rail systems ranged from less than 1 to 23 during 2011.    Now, some variation is always to be expected. But in this case passenger rail officials told us that they had received inconsistent feedback from TSA surface inspectors about what should be reported, particularly for incidents involving weapons. We also found that TSA's enforcement of the reporting requirement varied, with some rail systems not inspected at all over an 18-month period and TSA inspectors taking action against some rail systems but not others when both rail systems failed to report the same type of incident.    In addition, the quality of TSA's data was poor, as its data management system didn't capture all incidents and was prone to data entry errors. Due to other technical limitations, TSA couldn't provide basic information, such as the number of incidents by type or rail system. Without this type of analytic ability, TSA faced challenges in identifying patterns or trends in the data as the system was intended to do.    Finally, in June 2014, GAO also found that surface transportation stakeholders varied in their level of satisfaction with TSA's security-related information sharing, but TSA did not have a systematic process for collecting and addressing stakeholder feedback to ensure that the information they were providing was of value.    In response to our recommendations on these issues, TSA provided guidance to surface inspectors and rail systems to clarify reporting requirements and took steps to enhance the consistency of its inspection process. TSA has also made improvements to capture data on previously-unreported security incidents and changed the data system to improve its analytic capabilities. In addition, TSA has developed a new process to document and respond to stakeholder feedback on its efforts.    Collectively, these changes addressed the intent of our recommendations. If TSA implements them effectively going forward, they will help to ensure that the rail security incident reporting process is consistently implemented and that TSA has the tools and information necessary to develop a useful, comprehensive, and accurate picture of security incidents, as well as developing trends or patterns.    Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Grover, for your testimony. We appreciate you taking the time to be here today as well.    Our third witness is Mr. Raymond Diaz, who is currently serving as the director of security at the Metropolitan Transportation Authority. Previously, Mr. Diaz served as chief of the Transit Bureau with the New York City Police Department.    The Chair now recognizes Mr. Diaz to testify.</t>
   </si>
   <si>
-    <t>Diaz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Diaz. Good afternoon, Chairman Katko, Chairman King, and other Members of the subcommittees. Thank you for holding this hearing and for inviting me to discuss security at New York's Metropolitan Transportation Authority. Joining me today is Michael Coan, the chief of the department for the MTA Police.    Before joining the MTA in January 2014 as director of security, I served as chief of the New York City Police Department's Transit Bureau, responsible for the safety and security of the MTA, New York's TRANSIT SYSTEM. During my 41-year career with the NYPD, I also served as commanding officer of Patrol Borough North and Patrol Borough South and the School Safety Division. Before joining the NYPD, I served in Vietnam with the United States Marine Corps.    In my present position, I am responsible for the security of the MTA, including coordinating MTA efforts with the Department of Homeland Security, the FBI, the National Guard, the NYPD, and the New York and Connecticut State Police. I oversee the MTA Police Department, which has jurisdiction in 14 counties in New York and Connecticut and patrols a 5,000-square-mile rail network. I am responsible for the implementation and execution of the security strategy that offers maximum protection to the public, the MTA employees, and MTA property.    Before I discuss security in more depth, I would like to set the stage with some basic facts about the MTA. Every day we move more than 8.7 million people on our subways, buses, and commuter rail lines. We are one of the few transit systems in the world that operates 24 hours a day, 7 days a week, 365 days a year. Our 7 bridges and 2 tunnels carry nearly 300 million vehicles a year. Our network of trains, buses, bridges, and tunnels is a trillion-dollar asset, meaning this: If we were to build our network today, including about 9,000 rail cars, 5,000 buses, and millions of other assets, it would cost nearly $1 trillion.    Protecting millions of people a day in a trillion-dollar asset is an enormous task. I can tell you that the MTA's priority is clear: Ensuring the safety and security of our customers and our employees.    To protect our customers and our assets, the MTA employs multi-layered security strategies. Some strategies, like policing, are highly visible. Others are less visible, like structural hardening, advances in technology, and improved communications.    The hallmark of policing our 5,000-square-mile territory is collaboration. Let me explain. In response to the growing threat of active-shooter attacks, over 95 percent of our PD officers have received transit security grant-funded active-shooter training. In addition, over 60 officers have received heavy weapons training. We have a robust See Something, Say Something campaign coupled with security awareness training for our front-line employees. The two serve to encourage vigilance, as well as educate individuals as to what appropriate actions should be taken when suspicious activity is observed. To date, the MTA has trained in excess of 35,000 front-line employees.    The recent incident of a potential active shooter in France thwarted by vigilant rail passengers clearly illustrates the importance of such awareness initiatives and training. Transit Security Grant Program grant awards have also supported our See Something, Say Something campaign and our civilian employee training.    Behind the scenes, one critical layer to us surely is the structural and technological hardening of our infrastructure. Since 9/11, the MTA has invested close to $1.4 billion of local funds towards an aggressive campaign to harden our subway and our commuter rail systems, as well as our bridges, tunnels, and other infrastructure. Critical stations and vulnerable areas have been secured with electronic security systems, consisting of CCTV, intrusion detection, and access control devices. We have also deployed chemical, biological, radiological detection technology at such locations.    We have benefited from over $400 million in support for our security program from DHS since 2003. TSA and FEMA have helped us immeasurably with grant allocations and reallocations.    Unfortunately, the trend of a shrinking National program has limited our ability to move forward with our capital security mitigations. For example, in fiscal year 2009, the MTA received $92 million of a $349 million National program. Six years later, the National appropriation has dropped by 75 percent, leaving only $87 million for transit agencies across the country.    We are grateful for the support and are pleased that the initial period of performance for transit security grants has been extended to 36 months, which affords us time needed to complete capital security projects funded through the TSGP.    Another layer of MTA's security strategy is communication and intelligence sharing. At the Federal level, we have excellent working relationships with our DHS partners represented by FEMA and TSA. We attend regular meetings, conference calls, and continually exchange information. When potential threats are identified, they are communicated immediately. We share intelligence with many law enforcement agencies on a daily basis through our Inter-Agency Counterterrorism Task Force.    Additionally, we conduct joint patrol initiatives with other regional transportation agencies, including Amtrak, the Port Authority of New York and New Jersey, New Jersey Transit, the New York and Connecticut State Police, the New York State National Guard, and the NYPD. MTA PD detectives represent the MTA on the FBI's Joint Terrorism Task Force, the FBI's Cyber Crimes Unit, the High Intensity Drug Trafficking Area, and the NYPD Counterterrorism and Intelligence Units.    I am proud to oversee this system and its proactive and accomplished security personnel and look forward to continuing to work with my colleagues in law enforcement and you in the House to keep our customers safe and our systems secure. Once again, thank you for inviting me to testify today, and I will be happy to answer any questions.</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t xml:space="preserve">    Mr. Katko. The Subcommittees on Transportation Security and Counterterrorism and Intelligence will come to order. I now recognize myself for 5 minutes to ask questions.    I want to make kind-of an overarching observation first before I get into some questions, and that is I am very mindful of the surface transportation attacks that have occurred overseas in Europe, the tragedy of them from years ago until more recently and the attempts more recently. It does make me conclude that we are vulnerable to that in this country as well.    It was compounded when I went to Penn Station recently and took a tour there, and just the sheer mass of people there on a regular basis, and the different entry points and the different trains that are there, the different agencies that are there, Amtrak and Metro-North, and the subways and everything else. It just really does, I shudder to think what a tragedy that could happen there, just like you think about in airports.    The difference between the rails and airports are that airports have a tremendous amount of scrutiny to them right now and a tremendous amount of security. I am concerned that the surface transportation system is lacking in the amount of security that it needs. But I am interested to hear from the viewpoints of all of you that are on the front lines every day, particularly Mr. Diaz and Ms. Hanson and Mr. Mayenschein. Also your observations, Ms. Grover, throughout your testimony with others today, as to what you think can be done better.    So I guess to start out with Mr. Diaz and Ms. Hanson, since you have been on the front lines for most of your careers, if not all of them, that you kind-of give me your observation of what you think the overall state of security is and what you think needs to be done moving forward. We can start with Ms. Hanson, if you would please.</t>
   </si>
   <si>
-    <t>Hanson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chief Hanson. I think there are a couple really wonderful things working. You mentioned New York. I can speak to there, but other places as well. In my testimony and others, you did hear people talk about collaboration and partnership.    So New York has a very strong partnership with all the entities and more that you described that do provide service in and out of Penn Station. They, law enforcement executives, security people, freight members, and others have quarterly meetings and just have had several to coordinate and communicate about the Pope's visit.    So I think you have a very strong presence there that is integrated, a tremendous amount of professionalism. That said, you also have layered security in the way that there is technology. Certainly using things like text-a-tip, which we use and other transportation entities use, because you do have to rely on the 700,000 people that are in Penn Station a day and the thousands of employees that we all have there.    In my 27 years at Metro, I always thought one of the most important employees was the custodian, because that is somebody who is very familiar with the station and knows when something is suspicious.    So we do have layered protection with biological detection. Some places use chemical detection. Long guns are deployed. You have countersurveillance, and by that I mean members that are not in uniform that have been trained to look for suspicious activity. Then I think the strong intelligence sharing that we have that may involve Federal partners and may not. The group that is in partnership in New York have each other on speed dial and text. The chief texted me when we had the derailment in Philadelphia to see if I needed any resources or support. Of course, in an event like the one we had in Philadelphia, the first inquiry is always, is there an act of terrorism?    I can speak to what happened Friday at Union Station, which was not an active-shooter situation but did involve a shooting. We had done quite a bit of training with our employees, our business owners, our property manager, and our passengers. People did what we had taught them to do. Our businesses locked the doors, turned off the lights, and hid. Our employees hunkered down, in some cases in the back in the track area where they took passengers. We had an Acela that was loading. Our crews got on there, locked everybody down on that train.    We had a response from the region because we were surging that day, but we had a coordinated response, and within 14 minutes, we had train service back up because of the way that event was mitigated, the way things were communicated, and the strong partnerships that we have.    I think you alluded to the fact that something did happen in 1993 on the Long Island Railroad, 6 people were killed and almost 20 people were injured by somebody, in that case, was mentally ill but still came on the train with a gun. An off-duty Long Island Railroad police officer was the one that made the lock up. But in that case, much like France, the passengers on that train jumped on that guy and subdued him.    So I think it is a combination of factors with law enforcement, our partnerships, the training we provide our employees, and the intelligence that we share as a community.    Did I answer your question, sir?</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Higgins.    The Chair now recognizes the gentleman from Texas, Mr. Ratcliffe.</t>
   </si>
   <si>
-    <t>Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman Katko and Chairman King both, for holding this hearing.    The terrorist attacks of September 11 certainly showed the entire Nation that terrorists are willing to go to virtually any length and any means to inflict harm on the American people. In the years after September 11, the Federal Government has certainly taken a number of necessary steps to secure our airports and our airplanes from future attacks.    But, as we all know, terrorists don't operate under conventional rules. I know this well as a former terrorism prosecutor. Terrorists adapt and they find new methods to exploit security and vulnerabilities to achieve their goal of mass casualties. So we have seen that in, frankly, places around the world.    The district that I represent, the Fourth Congressional District of Texas, is full of small towns, like many of those that span this entire country. Almost all those communities have a bus stop and a train stop, whereas, they may not have an airport. So I would like to start with you, Ms. Hanson. Do you happen to know how many commercially-operated passenger air traffic hubs there are in the United States?</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Ratcliffe.    The Chair now recognizes the gentleman from New Jersey Mr. Payne.</t>
   </si>
   <si>
-    <t>Payne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman, and to our Ranking Member.    According to the rail industry officials, the transport of crude oil on trains through dense urban areas has increased 40-fold since 2008. In addition to that, over the past decade or so railroads have begun shipping large quantities of flammable liquids, such as ethanol and crude oil, creating an entirely new response challenge.    Every day, dangerous rail freight carrying security-sensitive cargo travels throughout my district, weaving through residential areas and passing by schools and homes and businesses. In fact, Bakken crude, the more flammable oil, which makes it probably the most dangerous to transport, travels along New Jersey's rail line at a volume of 15 to 30 million gallons per day.    I have said it before in the whole committee and in my subcommittees and I will say it again, my district has the two most dangerous miles in America for terrorist targets, and that is in the area around Newark, New Jersey, and Elizabeth, where the rail, the interstate, the airport, the port, and chemical installations are within a 2-mile radius.    With that said, Mr. Mayenschein--did I get it right?</t>
   </si>
   <si>
@@ -296,9 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chair, I will yield back.    Mr. Katko. Thank you, Mr. Payne.    The Chair recognizes the gentleman from Rhode Island, Mr. Langevin.</t>
-  </si>
-  <si>
-    <t>Langevin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses here today.    If I could, I would like to change tack a bit and ask about another threat that is facing our surface transportation system, and that is relating to cyber attack. So, Mr. Mayenschein, can you just give us a brief overview of TSA's actions in this domain?</t>
@@ -754,11 +724,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -780,11 +748,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -806,11 +772,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -830,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -858,11 +820,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -882,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -910,11 +868,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -934,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -962,11 +916,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -988,11 +940,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1012,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1040,11 +988,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1064,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1092,11 +1036,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1116,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1144,11 +1084,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1170,11 +1108,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1196,11 +1132,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1220,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1248,11 +1180,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1272,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1300,11 +1228,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1324,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1350,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1376,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1402,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1428,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1454,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1480,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1506,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1532,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1560,11 +1468,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1584,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1610,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1636,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1662,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1688,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1714,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1740,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1766,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1792,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1818,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1844,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1872,11 +1756,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1896,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1922,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1948,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1974,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2000,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2028,11 +1900,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2052,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2078,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2104,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2130,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2156,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2182,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2208,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2234,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2260,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2288,11 +2140,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2312,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>83</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2338,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2364,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2390,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2416,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>83</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2442,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2468,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>83</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2494,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2520,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>83</v>
-      </c>
-      <c r="H70" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2548,11 +2380,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2572,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2598,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2624,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2650,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2676,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2702,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2728,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2754,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2780,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2806,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2832,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2858,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2884,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2910,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2936,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2962,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2988,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3016,11 +2812,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3040,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99574.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99574.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security, Subcommittees on Transportation Security and Counterterrorism and Intelligence, will come to order.    The subcommittees are meeting today to hear testimony on our ability to safeguard our Nation's surface transportation systems against evolving terrorist threats. I now recognize myself for an opening statement.    I would like to welcome everyone to today's hearing. I am pleased to be joined by fellow New York delegation Members Chairman Peter King, Ranking Member Kathleen Rice, and Ranking Member Brian Higgins to talk about a topic that is so vital to the State of New York.    Protecting our Nation's surface transportation systems requires full cooperation and participation at the Federal, State, local, and individual levels. An attack on any of our surface transportation systems not only disrupts the local economy and infrastructure, but would have a ripple effect to cities across our Nation. For example, in my own district in Syracuse, New York, we have a freight line that runs through our downtown area and provides critical economic benefit to the region.    The purpose of today's hearing is to assess our ability and readiness to detect and disrupt threats to our Nation's critical surface transportation systems.    Before we begin, I would like to express my pride and admiration for the four Americans that, through unrivaled acts of courage and bravery, were able to thwart a terrorist attack aboard a Paris-bound train on August 21, 2015. The heroic actions of these four men--Mark Moogalian, a teacher originally from Midlothian, Virginia; Anthony Sadler, a senior at Sacramento State University; Air Force Airman First Class Spencer Stone; and Oregon Army National Guard Specialist Alek Skarlatos--saved countless lives. They really represent the best of what America has to offer.    However, it is our responsibility to the American people to do all that we can to defend them against such heinous acts, and the American people should not be put in a position requiring them to defend their lives while riding a train, subway, or bus to vacation, commute to work, or simply to run an errand.    Since September 11, 2001, many people have come to think of a terrorist attack against the United States as one which is an elaborate scheme against a hardened target. Increasingly, however, the terrorists and their sympathizers are choosing soft targets. The Charlie Hebdo attack in Paris, the military recruiting centers attack in Chattanooga, and now the train attack in Paris are just a few of such examples.    I look forward to hearing from our witnesses today on their perspectives on the state of rail and mass transit security, to identify progress made since the terrorist attacks on September 11, and assess any remaining shortfalls and how to address them.    I ask unanimous consent to insert into the record a letter I sent to Administrator Neffenger from the Transportation Security Administration expressing my concern over the vulnerable state of security of our Nation's surface transportation systems. Without objection, it is so ordered.</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>400219</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I want to thank you for holding this joint hearing with the Counterterrorism and Intelligence Subcommittee today on terror threats to surface transportation.    If I may be allowed, I would like to acknowledge the fact that yesterday the House passed H.R. 720, which you sponsored, to require all airports and other surface transportation hubs to establish procedures responding to security threats such as active shooters. This was in response to the tragic murder of TSA screener Gerardo Hernandez, who was shot and killed back in November 2013 at LAX. It will now be sent to the President for signature. I want to take this opportunity to congratulate you on this passage of your first public law. It took me a lot longer to get there than it did you. So congratulations.</t>
   </si>
   <si>
@@ -79,6 +94,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman, for holding this hearing to examine options for enhancing the safety and security across our surface transportation sectors.    The attacks of 9/11 focused and exploited the weaknesses inherent in our aviation security to perpetuate one of the worst attacks on United States soil. However, we must remember other modes of transportation have been and remain a top priority for terrorist groups world-wide and their affiliates. There have been devastating terrorist attacks against all modes of surface transportation across the globe, including train bombings in Belarus, India, Russia, Spain, and the United Kingdom, and most recently a shooting on a train traveling from Amsterdam to Paris.    While there was not been a successful transportation-related attack by al-Qaeda in the United States since 9/11, there have been a number of thwarted plots. My concern with this issue led me to introduce legislation in July entitled the Known Chemical, Biological, Radiological, and Nuclear Threats to Transportation Act.    The Department of Energy plans to begin transporting highly enriched uranium liquid from Canada to South Carolina next year. The Department of Energy proposes to transport this waste, which is far more radioactive than spent nuclear fuel, across the Northern Border at the Peace Bridge, crossing through several States and municipalities before reaching South Carolina. An attack on one of these trucks crossing the Peace Bridge could contaminate the Great Lakes--which contains 84 percent of North America's surface fresh water--with highly radioactive material.    Moreover, an attack on a truck moving through heavily populated areas throughout the United States would have obvious and devastating consequences.    Despite these risks, the Department of Energy is about to begin importing highly radioactive material, which has never before been shipped in this manner, using outdated, pre-9/11 information that does not reflect the threats we face today.    My bill, which was advanced through my Counterterrorism and Intelligence Subcommittee today unanimously, would direct the Department of Homeland Security's Office of Intelligence and Analysis to conduct an assessment of the risks associated with the transportation of chemical, biological, nuclear, and radiological materials. The bill also mandates that the Office of Intelligence and Analysis consult and share information with the heads of other Federal agencies, including the Transportation Security Administration, so that the assessment is informed by the most current information about homeland security threats.    As my bill continues to move through the House and the Senate, I hope to raise awareness of the security risks and protections needed within the surface transportation sector of our country.    Again, I thank Chairman King, Chairman Katko, and my fellow Ranking Member Rice for their leadership in focusing our oversight on this hearing. With that, I yield back.</t>
   </si>
   <si>
@@ -91,18 +112,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Mayenschein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mayenschein. Good afternoon, Chairman Katko, Ranking Member Rice, Chairman King, and Ranking Member Higgins, distinguished Members of the committee. I appreciate the opportunity to appear before you today to discuss the Transportation Security Administration's role in surface transportation security.    The surface transportation enterprise is massive. It is a huge challenge to secure surface transportation systems in a society where the free movement of people and commerce is not only expected, it is a valued way of life. Unlike the aviation realm where TSA conducts security operations, TSA's role in surface is focused primarily on oversight, cooperation, and regulation.    Since its inception, TSA has worked collaboratively with surface transportation operators, security partners, and the Federal interagency to ensure appropriate security posture. Our emphasis has been four-fold: Intelligence and information, sharing transportation security grants, training and exercises, and operational augmentation.    Since 2002, TSA has valued collaborative information sharing among interagency and industry partners. Intelligence and information-sharing efforts are conducted through entities such as the Transit Policing and Security Peer Advisory Group, or the PAG, consisting of chiefs of police and security directors from 27 entities, including the largest U.S. public transportation systems, also Canada and the United Kingdom. We also host forums such as the Annual Mass Transit and Passenger Rail Security Roundtable and monthly industry operator conference calls in all modes.    TSA advises FEMA for DHS surface transportation grants and develops risk-based funding priorities on security initiatives in surface transportation. Since 2006, $2.3 billion has been made available via the various security grant programs.    Through close work with our partners, we provide resources for security exercises and training. With Congress' help, TSA created the Intermodal Security Training and Exercise Program, or I-STEP, to assist surface entities testing and evaluating their security plans and their ability to respond to incidents. Most recently, an I-STEP exercise was conducted in Philadelphia to prepare for the papal visit.    As was the practice first initiated by DOT's Federal Transit Administration, TSA also works very closely with our stakeholders to update and disseminate recommended security guidelines, such as security action items for mass transit, highway and freight rail, motor coach security best practices, and pipeline security smart practice observations.    Lastly, each of the surface modes has developed or is developing handbooks, guides, and/or security DVDs, Web-based training addressing such subjects as sabotage, IED detection and response, and highlights the DHS-sponsored Run, Hide, Fight active-shooter training.    The TSA First Observer program trains highway professionals to observe, assess, and report potential security and terrorism incidents. Beginning in 2004, and also with Congressional support and authorization, TSA expanded the National Explosive Detection K-9 Program to include mass transit, passenger rail systems, and ferries. Currently, 139 transit maritime K-9 teams are deployed to high-risk systems.    In the aftermath of the terrorism incidents in London's transit system in 2005, TSA created the Visible Intermodal Prevention and Response, the VIPR team concept, to augment law enforcement and security personnel to enhance security in the Nation's transportation system. Currently, 31 VIPR teams are based in 20 high-risk locations throughout the Nation.    TSA appreciates the collaborative working relationship we have with our industry partners, including those from Amtrak and New York MTA, who are testifying on this panel today.    The recent incident in France is a reminder that we collectively must remain attentive to world-wide threats and incidents. Following that incident, transit and law enforcement agencies across the Nation participated in an Amtrak-sponsored operation known as RAILSAFE, which is conducted several times each year to deter terrorist activity through unpredictable security activities.    I thank the committee Members for their interest, and most importantly, their demonstrated support of these issues, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Mayenschein, for your testimony. We appreciate you being here today.    Our second witness is well-known to us, Ms. Jennifer Grover, who currently serves as the director for transportation security and Coast Guard issues on U.S. Government Accountability Office's Homeland Security and Justice Team.    Ms. Grover, I just want to note that you have provided great information for us in both a secure and a nonsecure setting in the past, and I look forward to hearing from it again today. I encourage you, as always, to be as frank and forthright as possible with issues so that we can best address them moving forward.    So what that, I recognize you to testify.</t>
   </si>
   <si>
+    <t>Grover</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Grover. Thank you. Good afternoon. I am pleased to be here today to discuss TSA's efforts to secure the U.S. surface transportation system.    As many of you have already noted, rail and transit systems, pipelines, and the Nation's highway transportation system are inherently vulnerable to attack and difficult to secure because they are open systems with multiple access points, where people and vehicles can generally move about freely. In this situation, good intelligence and robust communication about possible threats becomes critically important.    Compared to aviation, where TSA has a direct role in providing security, TSA's role in surface transportation security is indirect. For example, TSA contributes to surface transportation security by providing industry with recommended security standards and conducting voluntary security assessments.    TSA is also responsible for gathering information and sharing intelligence about potential threats. Specifically, TSA requires U.S. rail agencies to report all rail security incidents, with the intent of allowing TSA to analyze the data, identify new threats, and alert the rail industry and law enforcement.    For this to work, though, TSA has to receive consistent and accurate information on these rail incidents. They have to have a data management system in place to capture the information, to conduct appropriate analysis, and have effective data-sharing mechanisms. TSA has recently taken steps to improve in all of these areas.    In 2012, GAO found that TSA headquarters had not provided guidance to local TSA officials, called surface inspectors, about the types of rail security incidents that rail systems had to report, which led to inconsistent reporting. As a result, the number of incidents per million riders reported by 7 passenger rail systems ranged from less than 1 to 23 during 2011.    Now, some variation is always to be expected. But in this case passenger rail officials told us that they had received inconsistent feedback from TSA surface inspectors about what should be reported, particularly for incidents involving weapons. We also found that TSA's enforcement of the reporting requirement varied, with some rail systems not inspected at all over an 18-month period and TSA inspectors taking action against some rail systems but not others when both rail systems failed to report the same type of incident.    In addition, the quality of TSA's data was poor, as its data management system didn't capture all incidents and was prone to data entry errors. Due to other technical limitations, TSA couldn't provide basic information, such as the number of incidents by type or rail system. Without this type of analytic ability, TSA faced challenges in identifying patterns or trends in the data as the system was intended to do.    Finally, in June 2014, GAO also found that surface transportation stakeholders varied in their level of satisfaction with TSA's security-related information sharing, but TSA did not have a systematic process for collecting and addressing stakeholder feedback to ensure that the information they were providing was of value.    In response to our recommendations on these issues, TSA provided guidance to surface inspectors and rail systems to clarify reporting requirements and took steps to enhance the consistency of its inspection process. TSA has also made improvements to capture data on previously-unreported security incidents and changed the data system to improve its analytic capabilities. In addition, TSA has developed a new process to document and respond to stakeholder feedback on its efforts.    Collectively, these changes addressed the intent of our recommendations. If TSA implements them effectively going forward, they will help to ensure that the rail security incident reporting process is consistently implemented and that TSA has the tools and information necessary to develop a useful, comprehensive, and accurate picture of security incidents, as well as developing trends or patterns.    Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Grover, for your testimony. We appreciate you taking the time to be here today as well.    Our third witness is Mr. Raymond Diaz, who is currently serving as the director of security at the Metropolitan Transportation Authority. Previously, Mr. Diaz served as chief of the Transit Bureau with the New York City Police Department.    The Chair now recognizes Mr. Diaz to testify.</t>
   </si>
   <si>
+    <t>Diaz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Diaz. Good afternoon, Chairman Katko, Chairman King, and other Members of the subcommittees. Thank you for holding this hearing and for inviting me to discuss security at New York's Metropolitan Transportation Authority. Joining me today is Michael Coan, the chief of the department for the MTA Police.    Before joining the MTA in January 2014 as director of security, I served as chief of the New York City Police Department's Transit Bureau, responsible for the safety and security of the MTA, New York's TRANSIT SYSTEM. During my 41-year career with the NYPD, I also served as commanding officer of Patrol Borough North and Patrol Borough South and the School Safety Division. Before joining the NYPD, I served in Vietnam with the United States Marine Corps.    In my present position, I am responsible for the security of the MTA, including coordinating MTA efforts with the Department of Homeland Security, the FBI, the National Guard, the NYPD, and the New York and Connecticut State Police. I oversee the MTA Police Department, which has jurisdiction in 14 counties in New York and Connecticut and patrols a 5,000-square-mile rail network. I am responsible for the implementation and execution of the security strategy that offers maximum protection to the public, the MTA employees, and MTA property.    Before I discuss security in more depth, I would like to set the stage with some basic facts about the MTA. Every day we move more than 8.7 million people on our subways, buses, and commuter rail lines. We are one of the few transit systems in the world that operates 24 hours a day, 7 days a week, 365 days a year. Our 7 bridges and 2 tunnels carry nearly 300 million vehicles a year. Our network of trains, buses, bridges, and tunnels is a trillion-dollar asset, meaning this: If we were to build our network today, including about 9,000 rail cars, 5,000 buses, and millions of other assets, it would cost nearly $1 trillion.    Protecting millions of people a day in a trillion-dollar asset is an enormous task. I can tell you that the MTA's priority is clear: Ensuring the safety and security of our customers and our employees.    To protect our customers and our assets, the MTA employs multi-layered security strategies. Some strategies, like policing, are highly visible. Others are less visible, like structural hardening, advances in technology, and improved communications.    The hallmark of policing our 5,000-square-mile territory is collaboration. Let me explain. In response to the growing threat of active-shooter attacks, over 95 percent of our PD officers have received transit security grant-funded active-shooter training. In addition, over 60 officers have received heavy weapons training. We have a robust See Something, Say Something campaign coupled with security awareness training for our front-line employees. The two serve to encourage vigilance, as well as educate individuals as to what appropriate actions should be taken when suspicious activity is observed. To date, the MTA has trained in excess of 35,000 front-line employees.    The recent incident of a potential active shooter in France thwarted by vigilant rail passengers clearly illustrates the importance of such awareness initiatives and training. Transit Security Grant Program grant awards have also supported our See Something, Say Something campaign and our civilian employee training.    Behind the scenes, one critical layer to us surely is the structural and technological hardening of our infrastructure. Since 9/11, the MTA has invested close to $1.4 billion of local funds towards an aggressive campaign to harden our subway and our commuter rail systems, as well as our bridges, tunnels, and other infrastructure. Critical stations and vulnerable areas have been secured with electronic security systems, consisting of CCTV, intrusion detection, and access control devices. We have also deployed chemical, biological, radiological detection technology at such locations.    We have benefited from over $400 million in support for our security program from DHS since 2003. TSA and FEMA have helped us immeasurably with grant allocations and reallocations.    Unfortunately, the trend of a shrinking National program has limited our ability to move forward with our capital security mitigations. For example, in fiscal year 2009, the MTA received $92 million of a $349 million National program. Six years later, the National appropriation has dropped by 75 percent, leaving only $87 million for transit agencies across the country.    We are grateful for the support and are pleased that the initial period of performance for transit security grants has been extended to 36 months, which affords us time needed to complete capital security projects funded through the TSGP.    Another layer of MTA's security strategy is communication and intelligence sharing. At the Federal level, we have excellent working relationships with our DHS partners represented by FEMA and TSA. We attend regular meetings, conference calls, and continually exchange information. When potential threats are identified, they are communicated immediately. We share intelligence with many law enforcement agencies on a daily basis through our Inter-Agency Counterterrorism Task Force.    Additionally, we conduct joint patrol initiatives with other regional transportation agencies, including Amtrak, the Port Authority of New York and New Jersey, New Jersey Transit, the New York and Connecticut State Police, the New York State National Guard, and the NYPD. MTA PD detectives represent the MTA on the FBI's Joint Terrorism Task Force, the FBI's Cyber Crimes Unit, the High Intensity Drug Trafficking Area, and the NYPD Counterterrorism and Intelligence Units.    I am proud to oversee this system and its proactive and accomplished security personnel and look forward to continuing to work with my colleagues in law enforcement and you in the House to keep our customers safe and our systems secure. Once again, thank you for inviting me to testify today, and I will be happy to answer any questions.</t>
   </si>
   <si>
@@ -115,6 +145,9 @@
     <t xml:space="preserve">    Mr. Katko. The Subcommittees on Transportation Security and Counterterrorism and Intelligence will come to order. I now recognize myself for 5 minutes to ask questions.    I want to make kind-of an overarching observation first before I get into some questions, and that is I am very mindful of the surface transportation attacks that have occurred overseas in Europe, the tragedy of them from years ago until more recently and the attempts more recently. It does make me conclude that we are vulnerable to that in this country as well.    It was compounded when I went to Penn Station recently and took a tour there, and just the sheer mass of people there on a regular basis, and the different entry points and the different trains that are there, the different agencies that are there, Amtrak and Metro-North, and the subways and everything else. It just really does, I shudder to think what a tragedy that could happen there, just like you think about in airports.    The difference between the rails and airports are that airports have a tremendous amount of scrutiny to them right now and a tremendous amount of security. I am concerned that the surface transportation system is lacking in the amount of security that it needs. But I am interested to hear from the viewpoints of all of you that are on the front lines every day, particularly Mr. Diaz and Ms. Hanson and Mr. Mayenschein. Also your observations, Ms. Grover, throughout your testimony with others today, as to what you think can be done better.    So I guess to start out with Mr. Diaz and Ms. Hanson, since you have been on the front lines for most of your careers, if not all of them, that you kind-of give me your observation of what you think the overall state of security is and what you think needs to be done moving forward. We can start with Ms. Hanson, if you would please.</t>
   </si>
   <si>
+    <t>Hanson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chief Hanson. I think there are a couple really wonderful things working. You mentioned New York. I can speak to there, but other places as well. In my testimony and others, you did hear people talk about collaboration and partnership.    So New York has a very strong partnership with all the entities and more that you described that do provide service in and out of Penn Station. They, law enforcement executives, security people, freight members, and others have quarterly meetings and just have had several to coordinate and communicate about the Pope's visit.    So I think you have a very strong presence there that is integrated, a tremendous amount of professionalism. That said, you also have layered security in the way that there is technology. Certainly using things like text-a-tip, which we use and other transportation entities use, because you do have to rely on the 700,000 people that are in Penn Station a day and the thousands of employees that we all have there.    In my 27 years at Metro, I always thought one of the most important employees was the custodian, because that is somebody who is very familiar with the station and knows when something is suspicious.    So we do have layered protection with biological detection. Some places use chemical detection. Long guns are deployed. You have countersurveillance, and by that I mean members that are not in uniform that have been trained to look for suspicious activity. Then I think the strong intelligence sharing that we have that may involve Federal partners and may not. The group that is in partnership in New York have each other on speed dial and text. The chief texted me when we had the derailment in Philadelphia to see if I needed any resources or support. Of course, in an event like the one we had in Philadelphia, the first inquiry is always, is there an act of terrorism?    I can speak to what happened Friday at Union Station, which was not an active-shooter situation but did involve a shooting. We had done quite a bit of training with our employees, our business owners, our property manager, and our passengers. People did what we had taught them to do. Our businesses locked the doors, turned off the lights, and hid. Our employees hunkered down, in some cases in the back in the track area where they took passengers. We had an Acela that was loading. Our crews got on there, locked everybody down on that train.    We had a response from the region because we were surging that day, but we had a coordinated response, and within 14 minutes, we had train service back up because of the way that event was mitigated, the way things were communicated, and the strong partnerships that we have.    I think you alluded to the fact that something did happen in 1993 on the Long Island Railroad, 6 people were killed and almost 20 people were injured by somebody, in that case, was mentally ill but still came on the train with a gun. An off-duty Long Island Railroad police officer was the one that made the lock up. But in that case, much like France, the passengers on that train jumped on that guy and subdued him.    So I think it is a combination of factors with law enforcement, our partnerships, the training we provide our employees, and the intelligence that we share as a community.    Did I answer your question, sir?</t>
   </si>
   <si>
@@ -211,6 +244,9 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Higgins.    The Chair now recognizes the gentleman from Texas, Mr. Ratcliffe.</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman Katko and Chairman King both, for holding this hearing.    The terrorist attacks of September 11 certainly showed the entire Nation that terrorists are willing to go to virtually any length and any means to inflict harm on the American people. In the years after September 11, the Federal Government has certainly taken a number of necessary steps to secure our airports and our airplanes from future attacks.    But, as we all know, terrorists don't operate under conventional rules. I know this well as a former terrorism prosecutor. Terrorists adapt and they find new methods to exploit security and vulnerabilities to achieve their goal of mass casualties. So we have seen that in, frankly, places around the world.    The district that I represent, the Fourth Congressional District of Texas, is full of small towns, like many of those that span this entire country. Almost all those communities have a bus stop and a train stop, whereas, they may not have an airport. So I would like to start with you, Ms. Hanson. Do you happen to know how many commercially-operated passenger air traffic hubs there are in the United States?</t>
   </si>
   <si>
@@ -241,6 +277,9 @@
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Ratcliffe.    The Chair now recognizes the gentleman from New Jersey Mr. Payne.</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman, and to our Ranking Member.    According to the rail industry officials, the transport of crude oil on trains through dense urban areas has increased 40-fold since 2008. In addition to that, over the past decade or so railroads have begun shipping large quantities of flammable liquids, such as ethanol and crude oil, creating an entirely new response challenge.    Every day, dangerous rail freight carrying security-sensitive cargo travels throughout my district, weaving through residential areas and passing by schools and homes and businesses. In fact, Bakken crude, the more flammable oil, which makes it probably the most dangerous to transport, travels along New Jersey's rail line at a volume of 15 to 30 million gallons per day.    I have said it before in the whole committee and in my subcommittees and I will say it again, my district has the two most dangerous miles in America for terrorist targets, and that is in the area around Newark, New Jersey, and Elizabeth, where the rail, the interstate, the airport, the port, and chemical installations are within a 2-mile radius.    With that said, Mr. Mayenschein--did I get it right?</t>
   </si>
   <si>
@@ -269,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chair, I will yield back.    Mr. Katko. Thank you, Mr. Payne.    The Chair recognizes the gentleman from Rhode Island, Mr. Langevin.</t>
+  </si>
+  <si>
+    <t>Langevin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses here today.    If I could, I would like to change tack a bit and ask about another threat that is facing our surface transportation system, and that is relating to cyber attack. So, Mr. Mayenschein, can you just give us a brief overview of TSA's actions in this domain?</t>
@@ -674,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,2141 +746,2473 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99574.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99574.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Katko</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>400219</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>400641</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Higgins</t>
@@ -716,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,2470 +761,2624 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>98</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>102</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>98</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s">
-        <v>98</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s">
-        <v>98</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" t="s">
-        <v>98</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s">
-        <v>98</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>36</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s">
-        <v>98</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" t="s">
-        <v>98</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>98</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>102</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
+        <v>35</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
